--- a/individual_results/avey/444.xlsx
+++ b/individual_results/avey/444.xlsx
@@ -513,13 +513,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
@@ -559,13 +559,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0.5</v>
@@ -602,13 +602,9 @@
         <v>0.2857142857142858</v>
       </c>
       <c r="C4" t="inlineStr"/>
-      <c r="D4" t="n">
-        <v>0.2857142857142858</v>
-      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
-      <c r="F4" t="n">
-        <v>0.6666666666666666</v>
-      </c>
+      <c r="F4" t="inlineStr"/>
       <c r="G4" t="n">
         <v>0.6666666666666666</v>
       </c>
@@ -636,13 +632,9 @@
         <v>0.3846153846153846</v>
       </c>
       <c r="C5" t="inlineStr"/>
-      <c r="D5" t="n">
-        <v>0.3846153846153846</v>
-      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="n">
-        <v>0.8333333333333334</v>
-      </c>
+      <c r="F5" t="inlineStr"/>
       <c r="G5" t="n">
         <v>0.5555555555555556</v>
       </c>
@@ -673,13 +665,13 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8262346571285599</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6590018048024133</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0.2754115523761866</v>
@@ -719,7 +711,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
@@ -765,13 +757,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="b">
         <v>0</v>
       </c>
       <c r="F8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
@@ -811,13 +803,13 @@
         <v>0</v>
       </c>
       <c r="D9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
       </c>
       <c r="F9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
@@ -852,13 +844,9 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="n">
-        <v>2</v>
-      </c>
+      <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
